--- a/data/income_statement/3digits/total/612_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/612_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>612-Wireless telecommunications activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>612-Wireless telecommunications activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>14195898.69442</v>
@@ -965,28 +871,33 @@
         <v>19166592.70289</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>20179248.22913</v>
+        <v>20229185.24761</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>17406005.61324</v>
+        <v>22402525.46448001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>18294805.77743</v>
+        <v>24877864.24639</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>27827663.4265</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>31580813.39022</v>
+        <v>31586636.20679</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>35970939.50144999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>35974029.32071999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>40709177.139</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>13275575.78687</v>
@@ -1004,28 +915,33 @@
         <v>18308251.7879</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>19221654.65376</v>
+        <v>19271591.32224</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>16701659.71681</v>
+        <v>21417991.72188</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>17495724.2218</v>
+        <v>23935522.30295999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>26764586.09065</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>30195506.59431</v>
+        <v>30201329.23091</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>34233639.98525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>34236003.28747</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>39270818.254</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>813504.5895700001</v>
@@ -1037,19 +953,19 @@
         <v>836362.81949</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>763334.61098</v>
+        <v>763334.6109799999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>694728.75191</v>
+        <v>694728.7519100001</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>746712.82502</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>603327.0448700001</v>
+        <v>660806.51408</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>479308.83886</v>
+        <v>596322.93918</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>691681.76934</v>
@@ -1058,13 +974,18 @@
         <v>1209805.09884</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1631009.63842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1631662.50879</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1306059.96</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>106818.31798</v>
@@ -1079,31 +1000,36 @@
         <v>142070.60205</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>163612.1630800001</v>
+        <v>163612.16308</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>210880.75035</v>
+        <v>210881.10035</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>101018.85156</v>
+        <v>323727.22852</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>319772.71677</v>
+        <v>346019.0042500001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>371395.56651</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>175501.69707</v>
+        <v>175501.87704</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>106289.87778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>106363.52446</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>132298.925</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>237087.13634</v>
@@ -1124,10 +1050,10 @@
         <v>147275.69606</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>101015.91437</v>
+        <v>110999.22008</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>71558.13202</v>
+        <v>90851.92212999999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>128592.03748</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>198824.19951</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>234737.734</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>60218.28153</v>
@@ -1163,10 +1094,10 @@
         <v>126594.59245</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>81750.36315999999</v>
+        <v>89904.35992999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>65694.48824999999</v>
+        <v>84381.32735999998</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>108529.82581</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>134782.78182</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>199675.405</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>176355.09294</v>
@@ -1202,10 +1138,10 @@
         <v>19357.20617</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>18939.46439</v>
+        <v>20768.77333</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>5863.62067</v>
+        <v>6470.571670000001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>20058.20329</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>29721.05637</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>28933.516</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>513.76187</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>34320.36132000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>6128.813</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>13958811.55808</v>
@@ -1277,34 +1223,39 @@
         <v>19009897.94458</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>20031972.53307</v>
+        <v>20081909.55155</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>17304989.69887</v>
+        <v>22291526.2444</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>18223247.64541</v>
+        <v>24787012.32426</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>27699071.38902</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>31365109.99699</v>
+        <v>31370932.81356</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>35772115.30194001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>35775205.12121001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>40474439.405</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>7834034.220519999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>8774969.461789999</v>
+        <v>8774969.461790001</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>9975423.827270001</v>
@@ -1316,28 +1267,33 @@
         <v>12432693.34774</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>13037273.06972</v>
+        <v>13086598.24752</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>11286931.25761</v>
+        <v>15668115.03977</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>14277086.40386</v>
+        <v>18601448.21345</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>20106778.19999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>22806174.83134</v>
+        <v>22812134.73777</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>24828649.69268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24831060.50027</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>28242795.022</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2585.56963</v>
@@ -1361,7 +1317,7 @@
         <v>4128.84454</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4777.07441</v>
+        <v>13843.21623</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2414.32048</v>
@@ -1370,13 +1326,18 @@
         <v>202505.8455</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>386816.15052</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>386816.1653500001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>291748.115</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>199661.63878</v>
@@ -1394,28 +1355,33 @@
         <v>474181.42511</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>458960.2741</v>
+        <v>508285.4519</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>629198.49467</v>
+        <v>699670.57325</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>815387.4016699999</v>
+        <v>853431.5414600001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>747984.512</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>474007.6345</v>
+        <v>479781.85746</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>420740.5912399999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>422334.76674</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>467706.412</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>7631679.85949</v>
@@ -1436,25 +1402,30 @@
         <v>12573009.99049</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>10652772.01988</v>
+        <v>14963483.72346</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>13456232.55159</v>
+        <v>17733484.07957</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>19355609.58197</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>22129160.14708</v>
+        <v>22129345.83055</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>24019932.12174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>24020748.739</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>27479226.797</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>107.15262</v>
@@ -1478,7 +1449,7 @@
         <v>831.89852</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>689.3761900000001</v>
+        <v>689.37619</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>769.7855400000001</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>1160.82918</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>4113.698</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>6124777.337560001</v>
@@ -1502,7 +1478,7 @@
         <v>5444709.204120001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>5571566.49129</v>
+        <v>5571566.491290001</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>6066920.727</v>
@@ -1511,28 +1487,33 @@
         <v>6577204.59684</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>6994699.46335</v>
+        <v>6995311.30403</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>6018058.441260001</v>
+        <v>6623411.204630001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3946161.24155</v>
+        <v>6185564.11081</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>7592293.18903</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>8558935.165650001</v>
+        <v>8558798.075789999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>10943465.60926</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10944144.62094</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>12231644.383</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>5721954.80404</v>
@@ -1541,37 +1522,42 @@
         <v>5675833.845590001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>5964932.469450001</v>
+        <v>5964932.46945</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>5088255.461719999</v>
+        <v>5088255.46172</v>
       </c>
       <c r="G20" s="47" t="n">
         <v>5230522.45153</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5731994.36686</v>
+        <v>5732566.68932</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>4603395.614940001</v>
+        <v>5964835.333679999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>5080953.807259999</v>
+        <v>7122964.93125</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>8624713.56855</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9281916.518750003</v>
+        <v>9282437.562419998</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10438718.50979</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10439116.55181</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>10695234.781</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>15235.03437</v>
@@ -1592,10 +1578,10 @@
         <v>558.10528</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5.59661</v>
+        <v>460.88669</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>440.80684</v>
+        <v>29086.37063</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>57973.75127</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>28516.91763</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>36773.296</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>3264719.88891</v>
@@ -1631,25 +1622,30 @@
         <v>4077217.88949</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2954862.38192</v>
+        <v>4048427.42335</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3770320.664859999</v>
+        <v>4799812.460659999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>5949050.87266</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>6403285.402409999</v>
+        <v>6403285.40241</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>7273889.957909999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>7273890.45646</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>7394260.55</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>2441999.88076</v>
@@ -1667,28 +1663,33 @@
         <v>1425970.79307</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1654218.37209</v>
+        <v>1654790.69455</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1648527.63641</v>
+        <v>1915947.02364</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1310192.33556</v>
+        <v>2294066.09996</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2617688.94462</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2855703.307769999</v>
+        <v>2856224.35144</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3136311.63425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3136709.17772</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3264200.935</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>402822.53352</v>
@@ -1706,28 +1707,33 @@
         <v>1346682.14531</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1262705.09649</v>
+        <v>1262744.61471</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1414662.82632</v>
+        <v>658575.87095</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-1134792.56571</v>
+        <v>-937400.8204399999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-1032420.37952</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-722981.3530999999</v>
+        <v>-723639.4866300001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>504747.09947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>505028.06913</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1536409.602</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>2007210.22446</v>
@@ -1739,7 +1745,7 @@
         <v>2469994.57536</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2177921.231850001</v>
+        <v>2177921.23185</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>7922104.24989</v>
@@ -1748,25 +1754,30 @@
         <v>4079980.13868</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3987430.319809999</v>
+        <v>8022712.80935</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>8550615.76716</v>
+        <v>45322845.18217</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>24245617.43848</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>55149183.24304999</v>
+        <v>55149183.24305</v>
       </c>
       <c r="M25" s="47" t="n">
         <v>22245269.18838</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="47" t="n">
+        <v>27919757.225</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>125790.16343</v>
@@ -1790,7 +1801,7 @@
         <v>3365.847690000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2840.17623</v>
+        <v>8325.09103</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>3004.18236</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>8466.547909999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>120789.22454</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>1654231.47052</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>2721309.944</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>375982.4264699999</v>
+        <v>375982.42647</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>323870.79136</v>
@@ -1856,34 +1877,39 @@
         <v>453348.99671</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>615325.1301900001</v>
+        <v>615325.1301899999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>566699.12717</v>
+        <v>566699.1271700001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>658948.9447500001</v>
+        <v>658948.94475</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>298370.6683700001</v>
+        <v>357938.40969</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>266867.6549</v>
+        <v>343734.07033</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>453083.7414300001</v>
+        <v>453083.74143</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>675948.1655199998</v>
+        <v>675948.16552</v>
       </c>
       <c r="M28" s="48" t="n">
         <v>715684.47798</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>593299.512</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>4.29621</v>
@@ -1904,7 +1930,7 @@
         <v>53.97358999999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>34.65662</v>
+        <v>60.28601</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>38.26958</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>101069.06887</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>106309.526</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>131641.54368</v>
@@ -1943,10 +1974,10 @@
         <v>311827.7600900001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>277635.92978</v>
+        <v>350671.33212</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>320770.77666</v>
+        <v>429586.09211</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>633042.1326899999</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>565786.9155</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>508803.865</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>138091.00008</v>
@@ -1982,13 +2018,13 @@
         <v>9086.241009999998</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>6819.983689999999</v>
+        <v>6827.641189999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>835.39699</v>
+        <v>19727.32863</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>89054.03899000002</v>
+        <v>89054.03899</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>117397.88425</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>175292.64701</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>250465.347</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>763298.5289400001</v>
@@ -2021,13 +2062,13 @@
         <v>2226377.1831</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1617622.66525</v>
+        <v>5328793.11276</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>6841907.02269</v>
+        <v>43342045.94738</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>20717298.07838999</v>
+        <v>20717298.07839</v>
       </c>
       <c r="L32" s="48" t="n">
         <v>50845040.27331</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>16627944.12951</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>21077532.941</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>351613.0411099999</v>
+        <v>351613.04111</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>285588.02148</v>
@@ -2135,13 +2191,13 @@
         <v>544242.8870399999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>725145.7761299999</v>
+        <v>725145.77613</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1392119.3651</v>
+        <v>1583594.97658</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1104532.88832</v>
+        <v>1166564.80132</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>2024134.569</v>
@@ -2152,11 +2208,16 @@
       <c r="M35" s="48" t="n">
         <v>2396793.93108</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="48" t="n">
+        <v>2662036.09</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1038678.63927</v>
@@ -2177,10 +2238,10 @@
         <v>2418911.74896</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1567271.29764</v>
+        <v>4330338.204840001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5201358.89382</v>
+        <v>42124373.76025999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>17378300.01026</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>17715073.86728</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>23869301.818</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0.18593</v>
@@ -2204,7 +2270,7 @@
         <v>6.90434</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>7.26292</v>
+        <v>7.262920000000001</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>11.95086</v>
@@ -2219,7 +2285,7 @@
         <v>35.72833</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>33.90234</v>
+        <v>4286.181320000001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>436.81797</v>
@@ -2228,13 +2294,18 @@
         <v>8.2507</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>97.59434</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>97.59434000000002</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>27.524</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>317947.27529</v>
@@ -2255,10 +2326,10 @@
         <v>657938.27876</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>561219.09238</v>
+        <v>820351.1398199999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>425748.6039299999</v>
+        <v>852202.13177</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>766039.17214</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>784129.6793300001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>975535.95</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>111.61</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>76928.57776</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>33785.397</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>697801.50024</v>
@@ -2324,34 +2405,39 @@
         <v>686523.4694299999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>482069.1994299999</v>
+        <v>482069.19943</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5825195.254669999</v>
+        <v>5825195.25467</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>1742898.00022</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>985722.91423</v>
+        <v>3483451.02772</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4598642.147310001</v>
+        <v>41088732.28593999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>16577975.58803</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>47576244.46162999</v>
+        <v>47576244.46163</v>
       </c>
       <c r="M40" s="48" t="n">
         <v>16733921.74533</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>22708653.141</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>22818.06780999999</v>
+        <v>22818.06781</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>39100.99002</v>
@@ -2450,10 +2546,10 @@
         <v>17775.08547</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>20155.64438</v>
+        <v>26362.39065</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>176870.05672</v>
+        <v>179088.97771</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>33848.43212</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>119996.27052</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>151299.806</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>515827.64034</v>
@@ -2483,31 +2584,36 @@
         <v>323273.74746</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>544505.41108</v>
+        <v>544505.4110799999</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>645396.9699500001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1325183.32095</v>
+        <v>2773224.30615</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3760380.76529</v>
+        <v>4293366.16426</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>7947870.720799999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5993846.3712</v>
+        <v>5993847.507150001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>4341981.561799999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4341982.134550001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4327705.4</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>515707.68969</v>
@@ -2516,37 +2622,42 @@
         <v>301185.0464299999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>585352.2085299999</v>
+        <v>585352.2085300001</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>197282.77772</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>318528.8669500001</v>
+        <v>318528.86695</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>419215.3854499999</v>
+        <v>419215.38545</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>293299.92186</v>
+        <v>1741340.90706</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1640330.80955</v>
+        <v>2173316.20852</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4788185.12662</v>
+        <v>4788185.126619999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4679848.65596</v>
+        <v>4679849.79191</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1844144.03643</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1844144.60918</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1834300.65</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>119.95065</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>2497837.52537</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>2493404.75</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>855526.47837</v>
@@ -2603,28 +2719,33 @@
         <v>2310940.63974</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2278376.51626</v>
+        <v>2278416.034479999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2509638.52754</v>
+        <v>1577726.16931</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1545916.45766</v>
+        <v>-2032295.56279</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-2112973.6721</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-476545.2657500001</v>
+        <v>-477204.53523</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>692960.8587699999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>693241.2556799999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1259159.609</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>205647.91289</v>
@@ -2642,28 +2763,33 @@
         <v>330414.95762</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>399276.30923</v>
+        <v>399276.31238</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>425372.83139</v>
+        <v>469954.28196</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>374969.76156</v>
+        <v>564533.5429300001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1138533.12818</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>830469.4402899999</v>
+        <v>830469.4402900001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3074612.06504</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3074612.49143</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2084702.361</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>51679.87981</v>
@@ -2681,13 +2807,13 @@
         <v>20372.35612</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>29025.05276</v>
+        <v>29025.05591</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>12904.0211</v>
+        <v>50772.74518</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>18503.95391</v>
+        <v>18508.03577</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>50144.65932</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>23088.05136</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>26225.653</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>153968.03308</v>
@@ -2723,10 +2854,10 @@
         <v>370251.25647</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>412468.8102899999</v>
+        <v>419181.53678</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>356465.80765</v>
+        <v>546025.50716</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1088388.46886</v>
@@ -2735,13 +2866,18 @@
         <v>804283.51316</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3051524.01368</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3051524.44007</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2058476.708</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>77072.19326999999</v>
@@ -2759,28 +2895,33 @@
         <v>130813.76207</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>389122.39322</v>
+        <v>389122.41344</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>321601.66456</v>
+        <v>341237.88195</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>287543.62311</v>
+        <v>383520.41322</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>521146.0449399999</v>
+        <v>521146.0449400001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>815790.6576599999</v>
+        <v>815874.32124</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1421089.75929</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1421096.24071</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1998440.89</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2804,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>0</v>
+        <v>3e-05</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>0</v>
@@ -2813,13 +2954,18 @@
         <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>13.3344</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>16.28955</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>51849.60404</v>
@@ -2834,19 +2980,19 @@
         <v>26329.78842</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>35115.97799</v>
+        <v>35115.97799000001</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>54886.26344</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>46452.26134</v>
+        <v>46970.33321999999</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>135599.62496</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>35835.95792</v>
+        <v>35835.95792000001</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>47493.31368</v>
@@ -2854,14 +3000,19 @@
       <c r="M53" s="48" t="n">
         <v>230169.17538</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>76587.826</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>25222.58923000001</v>
+        <v>25222.58923</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>119424.08216</v>
@@ -2876,28 +3027,33 @@
         <v>95697.78408</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>334236.12978</v>
+        <v>334236.15</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>275149.40322</v>
+        <v>294267.54873</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>151943.99815</v>
+        <v>247920.78823</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>485310.08702</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>768297.3439799999</v>
+        <v>768381.0075599999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1190907.24951</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1190910.77578</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1921853.064</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>984102.19799</v>
@@ -2912,31 +3068,36 @@
         <v>1931356.47551</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2510541.835289999</v>
+        <v>2510541.83529</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2288530.432269999</v>
+        <v>2288569.93342</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2613409.69437</v>
+        <v>1706442.56932</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-1458490.31921</v>
+        <v>-1851282.43308</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-1495586.58886</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-461866.48312</v>
+        <v>-462609.4161799999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2346483.16452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2346757.5064</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1345421.08</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>530948.99148</v>
@@ -2951,31 +3112,36 @@
         <v>518637.80193</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>605337.76338</v>
+        <v>605337.7633800001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>641136.2557800001</v>
+        <v>641144.1600499999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>448176.69572</v>
+        <v>448191.80228</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>80386.54347</v>
+        <v>84301.90695999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>36626.9563</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>85666.56424000001</v>
+        <v>85667.11976</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>26776.06674</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>26857.69231</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>76691.375</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>453153.20651</v>
@@ -2993,25 +3159,28 @@
         <v>1905204.07191</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1647394.17649</v>
+        <v>1647425.77337</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2165232.99865</v>
+        <v>1258250.76704</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1538876.86268</v>
+        <v>-1935584.34004</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-1532213.54516</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-547533.04736</v>
+        <v>-548276.5359400001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2319707.09778</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2319899.81409</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1268729.705</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>78</v>
@@ -3047,25 +3219,28 @@
         <v>216</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>334</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>359</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>